--- a/final/StationID_list.xlsx
+++ b/final/StationID_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMS\earthquake_hfd\Data_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\MachineLearning\项目\地震\earthquake\master\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01030D55-F463-4DAF-BB9E-555D69E4FF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DE969-F318-4B5C-A880-E50897AFB926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="2340" windowWidth="12900" windowHeight="10572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,15 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>StationID</t>
+    <t>stationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +47,15 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -70,11 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -352,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -365,7 +376,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/final/StationID_list.xlsx
+++ b/final/StationID_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\MachineLearning\项目\地震\earthquake\master\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DE969-F318-4B5C-A880-E50897AFB926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C9562-DDD7-4C34-A6EA-30AA607E5E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2340" windowWidth="12900" windowHeight="10572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="2388" windowWidth="12900" windowHeight="10572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,7 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>stationID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>StationID</t>
   </si>
 </sst>
 </file>
@@ -364,7 +363,7 @@
   <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
